--- a/sampledata/sample3.xlsx
+++ b/sampledata/sample3.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koide\.streamlit\kikwebapp01\sampledata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E7E302-31C6-40C2-9FFA-A089EFD9158D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E65EFA3-FC3C-45DB-90AD-A3A287C8C632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="24408" windowHeight="15132" tabRatio="364" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="15972" windowHeight="12552" tabRatio="364" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="データ3" sheetId="4" r:id="rId1"/>
+    <sheet name="data" sheetId="4" r:id="rId1"/>
+    <sheet name="setting" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">データ3!$A$1:$J$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$J$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -171,27 +172,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -222,29 +208,93 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -542,675 +592,675 @@
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
         <v>24</v>
       </c>
-      <c r="D2" s="2">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="D2" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1">
         <v>106</v>
       </c>
-      <c r="F2" s="2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="8">
+        <v>0</v>
+      </c>
+      <c r="H2" s="12">
         <v>45426</v>
       </c>
-      <c r="I2" s="2">
-        <v>1</v>
-      </c>
-      <c r="J2" s="2">
+      <c r="I2" s="10">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
         <v>32</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1</v>
+      </c>
+      <c r="H3" s="12">
         <v>45429</v>
       </c>
-      <c r="I3" s="2">
-        <v>1</v>
-      </c>
-      <c r="J3" s="2">
+      <c r="I3" s="10">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
         <v>32</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
+        <v>1</v>
+      </c>
+      <c r="H4" s="12">
         <v>45429</v>
       </c>
-      <c r="I4" s="2">
-        <v>1</v>
-      </c>
-      <c r="J4" s="2">
+      <c r="I4" s="10">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
         <v>166</v>
       </c>
-      <c r="D5" s="2">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
         <v>118</v>
       </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5" s="12">
         <v>45432</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="10">
         <v>3</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
         <v>20</v>
       </c>
-      <c r="D6" s="2">
-        <v>2</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
         <v>30</v>
       </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0</v>
+      </c>
+      <c r="H6" s="12">
         <v>45432</v>
       </c>
-      <c r="I6" s="2">
-        <v>1</v>
-      </c>
-      <c r="J6" s="2">
+      <c r="I6" s="10">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
         <v>88</v>
       </c>
-      <c r="D7" s="2">
-        <v>2</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
         <v>154</v>
       </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7" s="12">
         <v>45432</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="10">
         <v>3</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2">
-        <v>2</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1">
         <v>130</v>
       </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="12">
         <v>45432</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="10">
         <v>3</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1">
         <v>48</v>
       </c>
-      <c r="D9" s="2">
-        <v>2</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1">
         <v>170</v>
       </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0</v>
+      </c>
+      <c r="H9" s="12">
         <v>45432</v>
       </c>
-      <c r="I9" s="2">
-        <v>1</v>
-      </c>
-      <c r="J9" s="2">
+      <c r="I9" s="10">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
-        <v>2</v>
-      </c>
-      <c r="C10" s="2">
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1">
         <v>24</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+      <c r="H10" s="12">
         <v>45432</v>
       </c>
-      <c r="I10" s="2">
-        <v>1</v>
-      </c>
-      <c r="J10" s="2">
+      <c r="I10" s="10">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
-        <v>2</v>
-      </c>
-      <c r="C11" s="2">
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
         <v>20</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0</v>
+      </c>
+      <c r="H11" s="12">
         <v>45432</v>
       </c>
-      <c r="I11" s="2">
-        <v>1</v>
-      </c>
-      <c r="J11" s="2">
+      <c r="I11" s="10">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="2">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2">
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1">
         <v>28</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+      <c r="H12" s="12">
         <v>45432</v>
       </c>
-      <c r="I12" s="2">
-        <v>1</v>
-      </c>
-      <c r="J12" s="2">
+      <c r="I12" s="10">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="2">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2">
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1">
         <v>24</v>
       </c>
-      <c r="D13" s="2">
-        <v>2</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1">
         <v>92</v>
       </c>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0</v>
+      </c>
+      <c r="H13" s="12">
         <v>45432</v>
       </c>
-      <c r="I13" s="2">
-        <v>1</v>
-      </c>
-      <c r="J13" s="2">
+      <c r="I13" s="10">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="2">
-        <v>2</v>
-      </c>
-      <c r="C14" s="2">
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1">
         <v>30</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0</v>
+      </c>
+      <c r="H14" s="12">
         <v>45432</v>
       </c>
-      <c r="I14" s="2">
-        <v>1</v>
-      </c>
-      <c r="J14" s="2">
+      <c r="I14" s="10">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="2">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2">
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
         <v>66</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0</v>
+      </c>
+      <c r="H15" s="12">
         <v>45432</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="10">
         <v>4</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="2">
-        <v>2</v>
-      </c>
-      <c r="C16" s="2">
+      <c r="B16" s="1">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1">
         <v>24</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="8">
+        <v>0</v>
+      </c>
+      <c r="H16" s="12">
         <v>45432</v>
       </c>
-      <c r="I16" s="2">
-        <v>1</v>
-      </c>
-      <c r="J16" s="2">
+      <c r="I16" s="10">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="2">
-        <v>2</v>
-      </c>
-      <c r="C17" s="2">
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1">
         <v>22</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2">
-        <v>0</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0</v>
+      </c>
+      <c r="H17" s="12">
         <v>45432</v>
       </c>
-      <c r="I17" s="2">
-        <v>1</v>
-      </c>
-      <c r="J17" s="2">
+      <c r="I17" s="10">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="2">
-        <v>2</v>
-      </c>
-      <c r="C18" s="2">
+      <c r="B18" s="1">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1">
         <v>36</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2">
-        <v>0</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0</v>
-      </c>
-      <c r="H18" s="1">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0</v>
+      </c>
+      <c r="H18" s="12">
         <v>45432</v>
       </c>
-      <c r="I18" s="2">
-        <v>1</v>
-      </c>
-      <c r="J18" s="2">
+      <c r="I18" s="10">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="2">
-        <v>2</v>
-      </c>
-      <c r="C19" s="2">
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1">
         <v>32</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2">
-        <v>0</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0</v>
-      </c>
-      <c r="H19" s="1">
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0</v>
+      </c>
+      <c r="H19" s="12">
         <v>45435</v>
       </c>
-      <c r="I19" s="2">
-        <v>1</v>
-      </c>
-      <c r="J19" s="2">
+      <c r="I19" s="10">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2">
-        <v>2</v>
-      </c>
-      <c r="E20" s="2">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1">
         <v>538</v>
       </c>
-      <c r="F20" s="2">
-        <v>0</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1">
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="8">
+        <v>0</v>
+      </c>
+      <c r="H20" s="12">
         <v>45436</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="10">
         <v>6</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2">
-        <v>2</v>
-      </c>
-      <c r="E21" s="2">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1">
         <v>32</v>
       </c>
-      <c r="F21" s="2">
-        <v>0</v>
-      </c>
-      <c r="G21" s="2">
-        <v>0</v>
-      </c>
-      <c r="H21" s="1">
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="8">
+        <v>0</v>
+      </c>
+      <c r="H21" s="12">
         <v>45439</v>
       </c>
-      <c r="I21" s="2">
-        <v>1</v>
-      </c>
-      <c r="J21" s="2">
+      <c r="I21" s="10">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2">
-        <v>2</v>
-      </c>
-      <c r="E22" s="2">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1">
         <v>38</v>
       </c>
-      <c r="F22" s="2">
-        <v>0</v>
-      </c>
-      <c r="G22" s="2">
-        <v>0</v>
-      </c>
-      <c r="H22" s="1">
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="8">
+        <v>0</v>
+      </c>
+      <c r="H22" s="12">
         <v>45439</v>
       </c>
-      <c r="I22" s="2">
-        <v>1</v>
-      </c>
-      <c r="J22" s="2">
+      <c r="I22" s="10">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="2">
-        <v>2</v>
-      </c>
-      <c r="C23" s="2">
+      <c r="B23" s="1">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1">
         <v>30</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2">
-        <v>0</v>
-      </c>
-      <c r="G23" s="2">
-        <v>0</v>
-      </c>
-      <c r="H23" s="1">
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="8">
+        <v>0</v>
+      </c>
+      <c r="H23" s="12">
         <v>45439</v>
       </c>
-      <c r="I23" s="2">
-        <v>1</v>
-      </c>
-      <c r="J23" s="2">
+      <c r="I23" s="10">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1219,4 +1269,48 @@
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C99BD286-A53B-4169-8CA5-18726D7D7B32}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>0.53472222222222221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>0.64583333333333337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>0.65277777777777779</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>0.72222222222222221</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>